--- a/biology/Histoire de la zoologie et de la botanique/Expédition_Santo_2006/Expédition_Santo_2006.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Expédition_Santo_2006/Expédition_Santo_2006.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exp%C3%A9dition_Santo_2006</t>
+          <t>Expédition_Santo_2006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'expédition Santo 2006 est une ambitieuse mission scientifique qui a été menée en 2006 à propos de la biodiversité de l'île d'Espiritu Santo dans la République du Vanuatu.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exp%C3%A9dition_Santo_2006</t>
+          <t>Expédition_Santo_2006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'expédition rassembla 160 scientifiques venus de 25 pays du monde et des moyens scientifiques, humains et technologiques d'exception.
-Elle était à l'initiative française du Muséum national d'histoire naturelle, de l'Institut de recherche pour le développement et de Pro-Natura International[1].
+Elle était à l'initiative française du Muséum national d'histoire naturelle, de l'Institut de recherche pour le développement et de Pro-Natura International.
 Elle était dirigée par :
 Philippe Bouchet, professeur au Muséum national d’histoire naturelle
 Hervé Le Guyader, professeur de biologie évolutive à l’Université Pierre-et-Marie-Curie (Paris VI)
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Exp%C3%A9dition_Santo_2006</t>
+          <t>Expédition_Santo_2006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Deux numéros thématiques de la revue scientifique Zoosystema (Publications scientifiques du Muséum national d'histoire naturelle) ont été spécifiquement consacrés à l'expédition Santo 2006 :
 Zoosystema, Vol.31, No.3, 2009, 352 p.
